--- a/Análise questionário/Análise Objetivos e Atividades ISO 29110.xlsx
+++ b/Análise questionário/Análise Objetivos e Atividades ISO 29110.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Meus Documentos\GitHub\Mestrado\Análise questionário\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26900" windowHeight="13280" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PM" sheetId="1" r:id="rId1"/>
     <sheet name="SI" sheetId="2" r:id="rId2"/>
+    <sheet name="PM.1" sheetId="3" r:id="rId3"/>
+    <sheet name="PM.2" sheetId="6" r:id="rId4"/>
+    <sheet name="PM.3" sheetId="7" r:id="rId5"/>
+    <sheet name="PM.4" sheetId="8" r:id="rId6"/>
+    <sheet name="Avaliação PM" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -30,7 +33,7 @@
     <author>Gladistone Afonso</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +135,7 @@
     <author>Gladistone Afonso</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0">
+    <comment ref="B17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment ref="B18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="409">
   <si>
     <t>Gerência de projetos</t>
   </si>
@@ -472,13 +475,3045 @@
   </si>
   <si>
     <t>Capacidade de previsão de entrega</t>
+  </si>
+  <si>
+    <t>Impacto</t>
+  </si>
+  <si>
+    <t>A empresa possui um documento de abertura de projeto (Declaração de Trabalho, Termo de Abertura do Projeto, etc.?)</t>
+  </si>
+  <si>
+    <t>Sim e utliza para todos os projetos de SW</t>
+  </si>
+  <si>
+    <t>Sim mas utiliza somente para os projetos de SW mais complexos ou mais valiosos</t>
+  </si>
+  <si>
+    <t>Sim mas utiliza somente para alguns projetos de SW ou somente algumas pessoas utilizam</t>
+  </si>
+  <si>
+    <t>Não há nada formalizado mas algum tipo de documentação é gerada no início do projeto, variando em forma e conteúdo a cada projeto e conforme a pessoa que o produz</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Sim, o projeto é decomposto em componentes de SW (sistemas, bibliotecas, sites, etc.), documentações (manual, help, instruções, etc.), itens do projeto (planos, relatórios, etc.) entre outros</t>
+  </si>
+  <si>
+    <t>Sim, o projeto é decomposto em componentes de SW (sistemas, bibliotecas, sites, etc.) e documentações (manual, help, instruções, etc.)</t>
+  </si>
+  <si>
+    <t>Sim, o projeto é decomposto em componentes de SW (sistemas, bibliotecas, sites, etc.)</t>
+  </si>
+  <si>
+    <t>Alguns entregáveis são especificados somente em projetos mais complexos ou valiosos ou somente algumas pessoas fazem isso</t>
+  </si>
+  <si>
+    <t>O documento de abertura do projeto de SW é revisado antes do início do projeto?</t>
+  </si>
+  <si>
+    <t>Somente para projetos mais complexos ou mais valiosos</t>
+  </si>
+  <si>
+    <t>O levantamento de requisitos é feito?</t>
+  </si>
+  <si>
+    <t>Sim e são registrados em formulários ou ferramentas padronizadas, para todos os projetos de SW</t>
+  </si>
+  <si>
+    <t>Sim, para todos os projetos de SW, mas os registros não são padronizados</t>
+  </si>
+  <si>
+    <t>Sim e são registrados em formulários ou ferramentas padronizadas, mas somente para projetos mais complexos ou valiosos</t>
+  </si>
+  <si>
+    <t>Sim, mas somente para projetos mais complexos ou valiosos, mas os registros não são padronizados</t>
+  </si>
+  <si>
+    <t>Critérios de aceitação dos requisitos são discriminados?</t>
+  </si>
+  <si>
+    <t>Sim, em conjunto com o cliente</t>
+  </si>
+  <si>
+    <t>Sim, somente pelo cliente</t>
+  </si>
+  <si>
+    <t>Sim, somente pela equipe do projeto</t>
+  </si>
+  <si>
+    <t>Não/Não são levantados os requisitos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O projeto de SW é decomposto em itens que serão entregues (ENTREGÁVEIS) ao cliente? Exemplos: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>backlog</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, pacotes de trabalho, itens de trabalho (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>work items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), etc.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sim, cada entregável possui uma ou mais atividades associadas e elas são levantadas na fase de planejamento</t>
+  </si>
+  <si>
+    <t>Sim, cada entregável possui uma ou mais atividades associadas e elas são levantadas na fase de execução</t>
+  </si>
+  <si>
+    <t>Sim mas somente para alguns projetos de SW mais complexos ou mais valiosos, durante a fase de planejamento</t>
+  </si>
+  <si>
+    <t>Sim mas somente para alguns projetos de SW mais complexos ou mais valiosos, durante a fase de execução</t>
+  </si>
+  <si>
+    <t>PM.1.1.Q1</t>
+  </si>
+  <si>
+    <t>PM.1.1.Q2</t>
+  </si>
+  <si>
+    <t>PM.1.1.Q3</t>
+  </si>
+  <si>
+    <t>PM.1.1.Q4</t>
+  </si>
+  <si>
+    <t>PM.1.1.Q5</t>
+  </si>
+  <si>
+    <t>PM.1.1 Review the Statement of Work</t>
+  </si>
+  <si>
+    <t>PM.1.2 Define with the Customer the Delivery Instructions of each one of the Deliverables specified in the Statement of Work</t>
+  </si>
+  <si>
+    <t>PM.1.2.Q1</t>
+  </si>
+  <si>
+    <t>São definidas instruções de entrega para os entregáveis?</t>
+  </si>
+  <si>
+    <t>Sim, para todos os entregáveis, definidas em conjunto com o cliente</t>
+  </si>
+  <si>
+    <t>Sim, para alguns dos entregáveis, definidas em conjunto com o cliente</t>
+  </si>
+  <si>
+    <t>PM.1.3 Identify the specific Tasks to be performed in order to produce the Deliverables and their Software Components identified in the Statement of Work. Include Tasks in the SI process along with verification, validation and reviews with Customer and Work Team Tasks to assure the quality of work products. Identify the Tasks to perform the Delivery Instructions. Document the Tasks.</t>
+  </si>
+  <si>
+    <t>PM.1.3.Q1</t>
+  </si>
+  <si>
+    <t>PM.1.3.Q2</t>
+  </si>
+  <si>
+    <r>
+      <t>É gerada uma lista de atividades para desenvolver o SW e prodzir outro entregáveis do projeto? Exemplos: tarefas (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tasks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), pendências, etc.</t>
+    </r>
+  </si>
+  <si>
+    <t>O processo de desenvolvimento de SW prevê atividades de verificação, validação e revisão para garantir a qualidade do produto</t>
+  </si>
+  <si>
+    <t>Sim, somente para a equipe</t>
+  </si>
+  <si>
+    <t>Somente em casos de impedimentos/urgência</t>
+  </si>
+  <si>
+    <t>PM.1.3.Q3</t>
+  </si>
+  <si>
+    <t>Atividades necessárias para executar as instruções de entrega são identificadas?</t>
+  </si>
+  <si>
+    <t>Sim, durante o desenvolvimento</t>
+  </si>
+  <si>
+    <t>Sim, durante o planejamento</t>
+  </si>
+  <si>
+    <t>Sim, durante as validações</t>
+  </si>
+  <si>
+    <t>Sim, somente quando necessário, próximo à entrega</t>
+  </si>
+  <si>
+    <t>PM.1.4.Q1</t>
+  </si>
+  <si>
+    <t>A duração ou o esforço para realizar cada tarefa é estimado</t>
+  </si>
+  <si>
+    <t>Sim, durante o planejamento inicial, em conjunto com toda a equipe</t>
+  </si>
+  <si>
+    <t>PM.1.4 Establish the Estimated Duration to perform each task.</t>
+  </si>
+  <si>
+    <t>PM.1.5.Q1</t>
+  </si>
+  <si>
+    <t>PM.1.5 Identify and document the Resources: human, material, equipment and tools, standards, including the required training of the Work Team to perform the project. Include in the schedule the dates when Resources and training will be needed.</t>
+  </si>
+  <si>
+    <t>As pessoas necessárias para executar o projeto são identificadas?</t>
+  </si>
+  <si>
+    <r>
+      <t>Sim, durante o planejamento de cada etapa (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ciclo, iteração, etc.), em conjunto com toda a equipe</t>
+    </r>
+  </si>
+  <si>
+    <t>Sim, durante o planejamento do projeto</t>
+  </si>
+  <si>
+    <r>
+      <t>Sim, durante o planejamento de cada etapa (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ciclo, iteração, etc.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Não, a designação é sob demanda, no início de cada atividade</t>
+  </si>
+  <si>
+    <t>Não, a equipe é muito pequena e todos trabalham no projeto ao mesmo tempo, executando as atividades sob demanda</t>
+  </si>
+  <si>
+    <t>PM.1.5.Q2</t>
+  </si>
+  <si>
+    <t>Os recursos necessários para executar o projeto são identificadas? Exemplo: equipamentos, salas para treinamentos, servidores, ferramentas, etc.</t>
+  </si>
+  <si>
+    <t>Não, os recursos são obtidos sob demanda, no início de cada atividade</t>
+  </si>
+  <si>
+    <t>Não, a estrutura é muito pequena e todos trabalham no projeto ao mesmo tempo, obtendo os recursos sob demanda</t>
+  </si>
+  <si>
+    <t>PM.1.5.Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM.1.5 Identify and document the Resources: human, material, equipment and tools, standards, including the required training of the Work Team to perform the project. Include in the </t>
+  </si>
+  <si>
+    <t>Os padrões necessários para executar o projeto são identificadas? Exemplo: procedimentos padrões de desenvolvimento, normas internas, manuais de melhores práticas, etc.</t>
+  </si>
+  <si>
+    <t>Não, mas todos da equipe receberam instruções prévias, escritas ou orais, de como executar o projeto</t>
+  </si>
+  <si>
+    <t>Não, mas todos da equipe receberam algum tipo de treinamento ao entrar na empresa de como executar projetos de SW</t>
+  </si>
+  <si>
+    <t>PM.1.5.Q4</t>
+  </si>
+  <si>
+    <t>Quando necessário, os treinamentos da equipe essenciais para a execução do projeto são identificados?</t>
+  </si>
+  <si>
+    <t>Não, treinamentos não são considerados parte do projeto e são executados sob demanda</t>
+  </si>
+  <si>
+    <t>Não, treinamentos são executados sob demanda mas são considerados parte do projeto</t>
+  </si>
+  <si>
+    <t>Treinamentos não são fornecidos para a equipe</t>
+  </si>
+  <si>
+    <t>PM.1.5.Q5</t>
+  </si>
+  <si>
+    <t>As datas em que as pessoas serão requisitadas para o projeto são inseridas no cronograma?</t>
+  </si>
+  <si>
+    <t>PM.1.5.Q6</t>
+  </si>
+  <si>
+    <t>As datas dos treinamentos necessários para o projeto são inseridas no cronograma?</t>
+  </si>
+  <si>
+    <t>PM.1.6.Q1</t>
+  </si>
+  <si>
+    <t>PM.1.6 Establish the Composition of Work Team assigning roles and responsibilities according to the Resources.</t>
+  </si>
+  <si>
+    <t>A montagem da equipe do projeto é planejada?</t>
+  </si>
+  <si>
+    <t>Sim, na fase de planejamento do projeto, de acordo com os recursos disponíveis</t>
+  </si>
+  <si>
+    <t>Sim, na fase de planejamento do projeto, mas sem levar em consideração os recursos disponíveis</t>
+  </si>
+  <si>
+    <r>
+      <t>Sim, na fase de planejamento de cada etapa (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ciclo, iteração, etc.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Não, ela é montada sob demanda, no início de cada atividade</t>
+  </si>
+  <si>
+    <t>PM.1.6.Q2</t>
+  </si>
+  <si>
+    <t>As responsabilidades e papéis de cada membro da equipe são planejadas?</t>
+  </si>
+  <si>
+    <t>Não, responsabilidades e papéis são atribuídos sob demanda</t>
+  </si>
+  <si>
+    <t>Não há atribuição clara de responsabilidades e papéis</t>
+  </si>
+  <si>
+    <t>PM.1.7 Assign estimated start and completion dates to each one of the Tasks in order to create the Schedule of the Project Tasks taking into account the assigned Resources, sequence and dependency of the Tasks.</t>
+  </si>
+  <si>
+    <t>PM.1.7.Q1</t>
+  </si>
+  <si>
+    <t>As datas de início e término das atividades são estimadas?</t>
+  </si>
+  <si>
+    <t>Sim, na fase de planejamento do projeto, utilizando as estimativas de tempo/esforço</t>
+  </si>
+  <si>
+    <t>Sim, na fase de planejamento, sem utilizar estimativas anteriores de tempo e esforço</t>
+  </si>
+  <si>
+    <r>
+      <t>Sim, na fase de planejamento de cada etapa (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ciclo, iteração, etc.), utilizando as estimativas de tempo/esforço</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sim, na fase de planejamento de cada etapa (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ciclo, iteração, etc.), sem utilizar estimativas anteriores de tempo/esforço</t>
+    </r>
+  </si>
+  <si>
+    <t>PM.1.7.Q2</t>
+  </si>
+  <si>
+    <t>A disponibilidade dos recursos humanos e materiais é levada em consideração quando as estimativas de cronograma são efetuadas? Exemplo: feriados, férias, parada para manutenção</t>
+  </si>
+  <si>
+    <t>Sim, durante a fase de planejamento do projeto todos os eventos que afetam os recursos, humanos ou materiais, são inseridos no cronograma</t>
+  </si>
+  <si>
+    <t>Sim, durante a fase de planejamento do projeto, mas somente os eventos que afetam os recursos humanos são considerados</t>
+  </si>
+  <si>
+    <t>Sim, na fase de planejamento de cada etapa (sprint, ciclo, iteração, etc.) todos os eventos que afetam os recursos, humanos ou materiais, são inseridos no cronograma</t>
+  </si>
+  <si>
+    <t>Sim, na fase de planejamento de cada etapa (sprint, ciclo, iteração, etc.), mas somente os eventos que afetam os recursos humanos são considerados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM.1.7 Assign estimated start and completion dates to each one of the Tasks in order to create the Schedule of the Project Tasks taking into account the assigned Resources, sequence </t>
+  </si>
+  <si>
+    <t>PM.1.7.Q3</t>
+  </si>
+  <si>
+    <t>A relação entre as atividades é considerada na hora de montar o cronograma?</t>
+  </si>
+  <si>
+    <t>Sim, a sequência e a dependência entre as atividades são analisadas e consideradas na fase de planejamento do projeto</t>
+  </si>
+  <si>
+    <t>Sim, a sequência e a dependência entre as atividades são analisadas e consideradas na fase de planejamento de cada etapa (sprint, ciclo, iteração, etc.)</t>
+  </si>
+  <si>
+    <t>Sim, mas somente a sequência entre as atividades é analisada e considerada na fase de planejamento do projeto</t>
+  </si>
+  <si>
+    <t>Sim, mas somente a sequência entre as atividades é analisada e considerada na fase de planejamento de cada etapa (sprint, ciclo, iteração, etc.)</t>
+  </si>
+  <si>
+    <t>PM.1.8 Calculate and document the project
+Estimated Effort and Cost.</t>
+  </si>
+  <si>
+    <t>PM.1.8.Q1</t>
+  </si>
+  <si>
+    <t>O esforço total requerido para terminar o projeto é calculado?</t>
+  </si>
+  <si>
+    <t>Sim, na fase de planejamento do projeto, utilizando as atividades e recursos levantados</t>
+  </si>
+  <si>
+    <t>Sim, utilizando estimativas levantadas pela equipe</t>
+  </si>
+  <si>
+    <t>PM.1.8.Q2</t>
+  </si>
+  <si>
+    <t>O custo total requerido para terminar o projeto é calculado?</t>
+  </si>
+  <si>
+    <t>Não, somente para cada etapa (sprint, ciclo, iteração, etc.) utilizando atividades e recursos</t>
+  </si>
+  <si>
+    <t>PM.1.9 Identify and document the risks which may affect the project.</t>
+  </si>
+  <si>
+    <t>PM.1.9.Q1</t>
+  </si>
+  <si>
+    <t>Sim, durante o planejamento de cada etapa (sprint, ciclo, iteração, etc.)</t>
+  </si>
+  <si>
+    <t>Riscos são identificados e documentados?</t>
+  </si>
+  <si>
+    <t>Sim, durante a execução do projeto</t>
+  </si>
+  <si>
+    <t>Não, riscos não são considerados no projeto</t>
+  </si>
+  <si>
+    <t>Sim, durante a execução do projeto, mas não são documentados</t>
+  </si>
+  <si>
+    <t>PM.1.10 Document the Version Control Strategy in the Project Plan.</t>
+  </si>
+  <si>
+    <t>PM.1.10.Q1</t>
+  </si>
+  <si>
+    <t>Existe uma estratégia de controle de versionamento?</t>
+  </si>
+  <si>
+    <t>Sim, para todos os artefatos do projeto e é documentada na fase de planejamento do projeto</t>
+  </si>
+  <si>
+    <t>Sim, somente para os artefatos de SW do projeto e é documentada na fase de planejamento do projeto</t>
+  </si>
+  <si>
+    <t>Sim, para todos os artefatos do projeto mas não faz parte da documentação do projeto</t>
+  </si>
+  <si>
+    <t>Sim, somente para os artefatos de SW do projeto mas não faz parte da documentação do projeto</t>
+  </si>
+  <si>
+    <t>PM.1.11 Generate the Project Plan integrating the elements previously identified and documented.</t>
+  </si>
+  <si>
+    <t>PM.1.11.Q1</t>
+  </si>
+  <si>
+    <t>É gerado algum plano de projeto?</t>
+  </si>
+  <si>
+    <t>Sim, integrando todos os elementos do projeto (termo de abertura, instruções de entrega, atividades, cronograma, composição da equipe, custos, riscos e estratégia de controle de versão)</t>
+  </si>
+  <si>
+    <t>Sim, integrando somente os principais elementos do projeto</t>
+  </si>
+  <si>
+    <t>Sim, mas com informações não integradas</t>
+  </si>
+  <si>
+    <t>Não, mas todos ou os principais elementos do projeto são disponibilizados para a equipe</t>
+  </si>
+  <si>
+    <t>PM.1.12 Include Product Description, Scope, Objectives and Deliverables in the Project Plan.</t>
+  </si>
+  <si>
+    <t>PM.1.12.Q1</t>
+  </si>
+  <si>
+    <t>Sim, e após ser documentada é integrada ao plano do projeto</t>
+  </si>
+  <si>
+    <t>Sim, mas apesar de documentada, não é integrada ao plano do projeto</t>
+  </si>
+  <si>
+    <t>A descrição do produto é criada?</t>
+  </si>
+  <si>
+    <t>Sim, mas sem documentação formal, e disponibilizada para toda a equipe</t>
+  </si>
+  <si>
+    <t>Sim, somente pelo GP/LE</t>
+  </si>
+  <si>
+    <t>Sim, pelo GP/LE, equipe e cliente</t>
+  </si>
+  <si>
+    <t>Sim, pelo GP/LE e equipe</t>
+  </si>
+  <si>
+    <t>Sim, somente pelo GP/LE ou pela equipe e cliente</t>
+  </si>
+  <si>
+    <t>Sim, unindo a equipe, GP/LE e cliente</t>
+  </si>
+  <si>
+    <t>Sim, para todos os entregáveis, definidas somente pelo GP/LE ou equipe</t>
+  </si>
+  <si>
+    <t>Sim, para alguns dos entregáveis, definidas somente pelo GP/LE ou equipe</t>
+  </si>
+  <si>
+    <t>Sim, somente entre GP/LE e cliente</t>
+  </si>
+  <si>
+    <t>Sim, durante o planejamento inicial, individualmente ou pelo GP/LE</t>
+  </si>
+  <si>
+    <t>Sim, durante o planejamento de cada etapa (sprint, ciclo, etc.), individualmente ou pelo GP/LE</t>
+  </si>
+  <si>
+    <t>Sim, utilizando estimativas levantadas pelo GP/LE</t>
+  </si>
+  <si>
+    <t>Sim, mas sem documentação formal, e disponibilizada somente para o GP/LE</t>
+  </si>
+  <si>
+    <t>PM.1.12.Q2</t>
+  </si>
+  <si>
+    <t>PM.1.12.Q3</t>
+  </si>
+  <si>
+    <t>PM.1.12.Q4</t>
+  </si>
+  <si>
+    <t>O escopo do projeto é criado?</t>
+  </si>
+  <si>
+    <t>Sim, e após ser documentado é integrado ao plano do projeto</t>
+  </si>
+  <si>
+    <t>Sim, mas apesar de documentado, não é integrado ao plano do projeto</t>
+  </si>
+  <si>
+    <t>Sim, mas sem documentação formal, e disponibilizado para toda a equipe</t>
+  </si>
+  <si>
+    <t>Sim, mas sem documentação formal, e disponibilizado somente para o GP/LE</t>
+  </si>
+  <si>
+    <t>Os objetivos do projeto são levantados?</t>
+  </si>
+  <si>
+    <t>Os entregáveis do projeto são identificados?</t>
+  </si>
+  <si>
+    <t>Sim, e após serem documentados são integrados ao plano do projeto</t>
+  </si>
+  <si>
+    <t>Sim, mas apesar de documentados, não são integrados ao plano do projeto</t>
+  </si>
+  <si>
+    <t>Sim, mas sem documentação formal, e disponibilizados para toda a equipe</t>
+  </si>
+  <si>
+    <t>Sim, mas sem documentação formal, e disponibilizados somente para o GP/LE</t>
+  </si>
+  <si>
+    <t>PM.1.13 Verify and obtain approval of the
+Project Plan.
+Verify that all Project Plan elements are viable and consistent. The results found are documented in a Verification Results and corrections are made until the document is approved by PM.</t>
+  </si>
+  <si>
+    <t>PM.1.13.Q1</t>
+  </si>
+  <si>
+    <t>É realizada uma análise de viabilidade do projeto?</t>
+  </si>
+  <si>
+    <t>Sim, todos os elementos do projeto são verificados quanto à viabilidade e consistência, sendo os resultados documentados</t>
+  </si>
+  <si>
+    <t>Sim, todos os elementos do projeto são verificados quanto à viabilidade e consistência, mas os resultados não são documentados</t>
+  </si>
+  <si>
+    <t>Sim, mas somente alguns elementos do projeto são verificados quanto à viabilidade e consistência, sendo os resultados documentados</t>
+  </si>
+  <si>
+    <t>Sim, mas somente alguns elementos do projeto são verificados quanto à viabilidade e consistência, mas os resultados não são documentados</t>
+  </si>
+  <si>
+    <t>PM.1.13.Q2</t>
+  </si>
+  <si>
+    <t>Como são tratados os problemas e inconsistências encontrados na análise de viabilidade do projeto?</t>
+  </si>
+  <si>
+    <t>São corrigidos, mas não são documentados</t>
+  </si>
+  <si>
+    <t>São documentados e corrigidos, gerando alterações nos demais documentos e planos do projeto afetados</t>
+  </si>
+  <si>
+    <t>São documentados e corrigidos, mas os documentos e planos do projeto afetados permanecem inalterados</t>
+  </si>
+  <si>
+    <t>Não são corrigidos</t>
+  </si>
+  <si>
+    <t>Não é feita a análise de viabilidade do projeto</t>
+  </si>
+  <si>
+    <t>PM.1.13.Q3</t>
+  </si>
+  <si>
+    <t>Sim, informalmente pelo GP/LE, antes do início do projeto</t>
+  </si>
+  <si>
+    <t>Sim, informalmente pelo GP/LE, a qualquer momento durante o projeto</t>
+  </si>
+  <si>
+    <t>PM.1.14 Review and accept the Project Plan.
+Customer reviews and accepts the Project Plan, making sure that the Project Plan elements match with the Statement of Work.</t>
+  </si>
+  <si>
+    <t>O plano de projeto é validado?</t>
+  </si>
+  <si>
+    <t>Sim, existe um procedimento formal de validação do plano de projeto pelo GP/LE antes do início do projeto</t>
+  </si>
+  <si>
+    <t>Sim, formalmente pelo GP/LE, mas não existe um procedimento padrão e a validação pode ocorrer até mesmo com o projeto em andamento</t>
+  </si>
+  <si>
+    <t>PM.1.15.Q1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sim, existe um procedimento formal de revisão e aprovação do plano de projeto pelo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cliente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> antes do início do projeto, confrontando com os elementos do documento de abertura do projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sim, existe um procedimento formal de revisão e aprovação do plano de projeto </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>somente pelo GP/LE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> antes do início do projeto, confrontando com os elementos do documento de abertura do projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sim, informalmente pelo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cliente,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> antes do início do projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sim, informalmente pelo</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GP/LE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, a qualquer momento durante o projeto</t>
+    </r>
+  </si>
+  <si>
+    <t>PM.1.15 Establish the Project Repository using the Version Control Strategy.</t>
+  </si>
+  <si>
+    <t>PM.1.16.Q1</t>
+  </si>
+  <si>
+    <t>Existe um repositório do projeto?</t>
+  </si>
+  <si>
+    <t>Sim, definido no planejamento do projeto mas sem controle de versão</t>
+  </si>
+  <si>
+    <t>Sim, definido no planejamento do projeto, documentado e mantido pela estratégia de controle de versão</t>
+  </si>
+  <si>
+    <t>Sim, um repositório padrão para todos os projetos da empresa e mantido pela estratégia de controle de versão</t>
+  </si>
+  <si>
+    <t>Sim, um repositório padrão para todos os projetos da empresa mas sem controle de versão</t>
+  </si>
+  <si>
+    <t>Total de questões:</t>
+  </si>
+  <si>
+    <t>PM.2.1 Monitor the Project Plan execution and record actual data in Progress Status Record.</t>
+  </si>
+  <si>
+    <t>PM.2.1.Q1</t>
+  </si>
+  <si>
+    <t>Como é feito o acompanhamento do projeto?</t>
+  </si>
+  <si>
+    <t>A execução do plano de projeto é monitorada e documentada</t>
+  </si>
+  <si>
+    <t>A execução do plano de projeto é monitarada mas não é documentada</t>
+  </si>
+  <si>
+    <t>Não existe um plano de projeto, mas a execução do projeto é controlada pelo GP/LE e documentada</t>
+  </si>
+  <si>
+    <t>Não existe um plano de projeto, mas a execução do projeto é controlada pelo GP/LE mas não é documentada</t>
+  </si>
+  <si>
+    <t>Não é realizado</t>
+  </si>
+  <si>
+    <t>PM 2.2 Analyse and evaluate the Change Request for cost, schedule and technical impact.
+The Change Request can be initiated externally by the Customer or internally by the Work Team. Update the Project Plan, if the accepted change does not affect agreements with Customer.
+Change Request, which affects those agreements, needs to be negotiated by both parties (see PM.2.4).</t>
+  </si>
+  <si>
+    <t>PM.2.2.Q1</t>
+  </si>
+  <si>
+    <t>Como são feitas as solicitações de mudança no projeto?</t>
+  </si>
+  <si>
+    <t>Existe um procedimento padrão de documentação das solicitações, independentes da origem (interna/cliente)</t>
+  </si>
+  <si>
+    <t>Existe um procedimento padrão de documentação das solicitações, mas somente para as originadas pelo cliente</t>
+  </si>
+  <si>
+    <t>As solicitações são recebidas e gerenciadas pelo GP/LE sem um procedimento padrão</t>
+  </si>
+  <si>
+    <t>As solicitações são recebidas e gerenciadas pela equipe sem um procedimento padrão</t>
+  </si>
+  <si>
+    <t>Não é feito nenhum controle sobre as solicitações de mudança</t>
+  </si>
+  <si>
+    <t>Como são analisadas as solicitações de mudança no projeto?</t>
+  </si>
+  <si>
+    <t>O GP/LE analisa os impactos sobre o custo, cronograma e viabilidade técnica</t>
+  </si>
+  <si>
+    <t>A equipe analisa os impactos sobre o custo, cronograma e viabilidade técnica</t>
+  </si>
+  <si>
+    <t>O GP/LE analisa os impactos sobre somente um ou dois elementos (custo, cronograma e viabilidade técnica)</t>
+  </si>
+  <si>
+    <t>A equipe analisa os impactos sobre somente um ou dois elementos (custo, cronograma e viabilidade técnica)</t>
+  </si>
+  <si>
+    <t>PM.2.2.Q2</t>
+  </si>
+  <si>
+    <t>Não é feita nenhuma análise das solicitações</t>
+  </si>
+  <si>
+    <t>PM.2.2.Q3</t>
+  </si>
+  <si>
+    <t>Como são aprovadas as solicitações de mudança no projeto?</t>
+  </si>
+  <si>
+    <t>Mudanças que não afetam acordos realizados com o cliente podem ser aprovadas pelo GP/LE. Mudanças que afetam os acordos com o cliente, e que não foram originadas do mesmo, devem ser renegociadas. O plano de projeto é atualizado.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mudanças que não afetam acordos realizados com o cliente podem ser aprovadas pelo GP/LE. Mudanças que afetam os acordos com o cliente, e que não foram originadas do mesmo, devem ser renegociadas. O plano de projeto </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> é atualizado.</t>
+    </r>
+  </si>
+  <si>
+    <t>As mudanças são aprovadas pelo GP/LE mas sem considerar os acordos com o cliente. O Plano de projeto é atualizado.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As mudanças são aprovadas pelo GP/LE mas sem considerar os acordos com o cliente. O Plano de projeto </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> é atualizado.</t>
+    </r>
+  </si>
+  <si>
+    <t>Não há um procedimento formal de aprovação das solicitações</t>
+  </si>
+  <si>
+    <t>PM.2.3 Conduct revision meetings with the Work Team, identify problems, review risk status, record agreements and track them to closure.</t>
+  </si>
+  <si>
+    <t>PM.2.3.Q1</t>
+  </si>
+  <si>
+    <t>Como o GP/LE acompanha a equipe?</t>
+  </si>
+  <si>
+    <t>Reuniões periódicas são estabelecidas no planejamento do projeto</t>
+  </si>
+  <si>
+    <t>Reuniões são estabelecidas para o início e final de cada etapa (sprint, ciclo, iteração, etc.)</t>
+  </si>
+  <si>
+    <t>Reuniões são estabelecidas para o início e final do projeto</t>
+  </si>
+  <si>
+    <t>Não existe acompanhamento ou só é realizado em caso de impedimentos/urgências</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reuniões periódicas são estabelecidas durante o planejamento de cada etapa </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(sprint,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ciclo, iteração, etc.)</t>
+    </r>
+  </si>
+  <si>
+    <t>PM.2.3.Q2</t>
+  </si>
+  <si>
+    <t>Como os problemas identificados durante a execução do projeto são tratados?</t>
+  </si>
+  <si>
+    <t>Reuniões periódicas de revisão são estabelecidas no planejamento do projeto</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reuniões periódicas de revisão são estabelecidas durante o planejamento de cada etapa </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(sprint,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ciclo, iteração, etc.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Reuniões de revisão são estabelecidas para o início e final de cada etapa (sprint, ciclo, iteração, etc.)</t>
+  </si>
+  <si>
+    <t>Reuniões de revisão são estabelecidas para o início e final do projeto</t>
+  </si>
+  <si>
+    <t>São informados nas reuniões periódicas de revisão entre o GP/LE e a equipe, os status dos riscos são revisados, as correções são documentadas e rastreadas até a conclusão</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">São informados nas reuniões periódicas de revisão entre o GP/LE e a equipe, as correções são documentadas e rastreadas até a conclusão mas os status dos riscos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> são revisados</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>São informados nas reuniões periódicas de revisão entre o GP/LE e a equipe, mas as correções</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> não são documentadas ou não são rastreadas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> até a conclusão, também </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sem considerar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> os status dos riscos</t>
+    </r>
+  </si>
+  <si>
+    <t>São corrigidos pela equipe e depois são comunicados ao GP/LE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">São corrigidos pela equipe mas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> são comunicados ao GP/LE</t>
+    </r>
+  </si>
+  <si>
+    <t>PM.2.4.Q1</t>
+  </si>
+  <si>
+    <t>Como o cliente acompanha o projeto?</t>
+  </si>
+  <si>
+    <t>PM.2.4 Conduct revision meetings with the Customer, record agreements and track them to closure.
+Change Request initiated by Customer or initiated by Work Team, which affects the Customer, needs to be negotiated to reach acceptance of both parties.
+If necessary, update the Project Plan according to new agreement with Customer.</t>
+  </si>
+  <si>
+    <t>PM.2.5.Q1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como é feito o </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>backup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> do projeto?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">backup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de todos os elementos do projeto (não somente o código fonte) é realizado de acordo com uma estratégia de controle de versão</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">backup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">de todos os elementos do projeto (não somente o código fonte) é realizado, mas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> uma estratégia de controle de versão</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">backup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>somente o código fonte é realizado de acordo com uma estratégia de controle de versão</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">backup </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">somente o código fonte é realizado, mas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> uma estratégia de controle de versão</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Não é realizado o </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>backup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ou não há um procedimento claro sobre como realizá-lo</t>
+    </r>
+  </si>
+  <si>
+    <t>PM.2.5 Perform backup according to the Version Control Strategy.</t>
+  </si>
+  <si>
+    <t>PM.3.1.Q1</t>
+  </si>
+  <si>
+    <t>Como são controladas as atividades do projeto?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso das atividades é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>periodicamente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado as atividades realizadas com as atividades planejadas documentadas no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso das atividades é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>periodicamente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado as atividades realizadas com as atividades planejadas, mas que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não estão</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> documentadas no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso das atividades é avaliado somente </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ao final das etapas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ciclo, iteração, etc.) confrontado as atividades realizadas com as atividades planejadas documentadas no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso das atividades é avaliado somente </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ao final das etapas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ciclo, iteração, etc.) confrontado as atividades realizadas com as atividades planejadas, mas que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não estão</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> documentadas no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <t>Não são controladas</t>
+  </si>
+  <si>
+    <t>PM.3.1.Q2</t>
+  </si>
+  <si>
+    <t>PM.3.1.Q3</t>
+  </si>
+  <si>
+    <t>PM.3.1.Q4</t>
+  </si>
+  <si>
+    <t>PM.3.1.Q5</t>
+  </si>
+  <si>
+    <t>PM.3.1.Q6</t>
+  </si>
+  <si>
+    <t>Como são controlados os objetivos do projeto?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso dos objetivos é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>periodicamente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado os resultadoos alcançados com os objetivos planejados documentados no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso dos objetivos é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>periodicamente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado os resultadoos alcançados com os objetivos planejados, mas que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> estão documentadas no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso dos objetivos é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">somente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ao final das etapas</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ciclo, iteração, etc.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado os resultadoos alcançados com os objetivos planejados documentados no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso dos objetivos é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">somente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ao final das etapas</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ciclo, iteração, etc.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado os resultadoos alcançados com os objetivos planejados, mas que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> estão documentadas no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <t>Não são controlados</t>
+  </si>
+  <si>
+    <t>Como são controlados os recursos do projeto?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso de utilização dos recursos é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>periodicamente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado a alocação dos recursos com os recursos planejados documentados no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso de utilização dos recursos é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">somente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ao final das etapas</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ciclo, iteração, etc.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado a alocação dos recursos com os recursos planejados documentados no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <t>Como são controlados os custos do projeto?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso dos custos é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>periodicamente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado os gastos com o orçamento planejado documentado no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso dos custos é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>periodicamente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado os gastos com o orçamento planejado, mas que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> estão documentados no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso de utilização dos recursos é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">somente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ao final das etapas</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ciclo, iteração, etc.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado a alocação dos recursos com os recursos planejados, mas que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> estão documentados no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso de utilização dos recursos é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>periodicamente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado a alocação dos recursos com os recursos planejados, mas que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> estão documentados no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso dos custos é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">somente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ao final das etapas</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ciclo, iteração, etc.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado os gastos com o orçamento planejado documentado no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso dos custos é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">somente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ao final das etapas</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ciclo, iteração, etc.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado os gastos com o orçamento planejado, mas que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> estão documentados no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <t>Como é controlado o conograma do projeto?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O cronograma é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>periodicamente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado o tempo gasto com o tempo planejado documentado no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <t>Não é controlado</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O cronograma é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">somente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ao final das etapas</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ciclo, iteração, etc.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado o tempo gasto com o tempo planejado documentado no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O cronograma é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>periodicamente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado o tempo gasto com o tempo planejado, mas que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> está documentado no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O cronograma é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">somente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ao final das etapas</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ciclo, iteração, etc.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado o tempo gasto com o tempo planejado, mas que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> está documentado no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <t>Como são controlados os riscos do projeto?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso dos riscos é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>periodicamente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado os riscos encontrados com os riscos identificados previamente, mas que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> estão documentados no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso dos riscos é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>periodicamente</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado os riscos encontrados com os riscos identificados previamente documentados no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso dos riscos é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">somente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ao final das etapas</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ciclo, iteração, etc.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado os riscos encontrados com os riscos identificados previamente documentados no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O progresso dos riscos é avaliado </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">somente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ao final das etapas</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, ciclo, iteração, etc.)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> confrontado os riscos encontrados com os riscos identificados previamente, mas que </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> estão documentados no plano de projeto</t>
+    </r>
+  </si>
+  <si>
+    <t>PM.3.1 Evaluate project progress with respect to the Project Plan, comparing:
+- actual Tasks against planned Tasks
+- actual results against established project
+Objectives
+- actual resource allocation against planned Resources
+- actual cost against budget estimates
+- actual time against planned schedule
+- actual risk against previously identified</t>
+  </si>
+  <si>
+    <t>PM.3.2 Establish actions to correct deviations or problems and identified risks concerning the accomplishment of the plan, as needed, document them in Correction Register and track them to closure.</t>
+  </si>
+  <si>
+    <t>PM.3.2.Q1</t>
+  </si>
+  <si>
+    <t>Ações corretivas são estabelecidas, documentadas e rastreadas até sua conclusão</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ações corretivas são estabelecidas e documentadas, mas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> são rastreadas até sua conclusão</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ações corretivas são estabelecidas mas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> são documentadas e </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> são rastreadas até sua conclusão</t>
+    </r>
+  </si>
+  <si>
+    <t>A equipe executa as ações corretivas sem documentação formal ou sem informar ao GP/LE</t>
+  </si>
+  <si>
+    <t>Não são identificados ou são tratados indevidamente (sem documentação, quando o problema já tomou proporções muito grandes, etc.)</t>
+  </si>
+  <si>
+    <t>PM.3.3 Identify changes to requirements and/or Project Plan to address major deviations, potential risks or problems concerning the accomplishment of the plan, document them in Change Request and track them to closure.</t>
+  </si>
+  <si>
+    <t>PM.3.3.Q1</t>
+  </si>
+  <si>
+    <t>Como são tratadas as mudanças aos requisitos ou plano de projeto identificados durante a execução do projeto que possam prejudicar a finalização do mesmo?</t>
+  </si>
+  <si>
+    <t>Como são tratados os problemas, desvios ou riscos identificados durante a execução do projeto que possam prejudicar a finalização do mesmo?</t>
+  </si>
+  <si>
+    <t>Potenciais riscos, problemas e/ou grandes desvios que prejudiquem a finalização do projeto são identificados e uma solicitação de mudanças é documentada para avaliação do GP/LE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Uma solicitação de mudanças é documentada para avaliação do GP/LE mas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sem a identificação</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dos potenciais riscos, problemas e/ou grandes desvios que prejudiquem a finalização do projeto</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As mudanças são realizadas pela equipe, mas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nenhuma solicitação de mudança é gerada e avaliada</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Potenciais riscos, problemas e/ou grandes desvios que prejudiquem a finalização do projeto são identificados, mas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nenhuma solicitação de mudança é gerada e avaliada</t>
+    </r>
+  </si>
+  <si>
+    <t>As mudanças não são documentadas ou avaliadas</t>
+  </si>
+  <si>
+    <t>PM.4.1.Q1</t>
+  </si>
+  <si>
+    <t>PM.4.1. Formalize the completion of the project according to the Delivery Instructions established in the Project Plan, providing acceptance support and getting the Acceptance Record signed.</t>
+  </si>
+  <si>
+    <t>Como o projeto é encerrado?</t>
+  </si>
+  <si>
+    <t>O encerramento do projeto é formalizado de acordo com as instruções de entrega e o aceite do cliente é conseguido através da assinatura de um documento de aceitação</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O aceite do cliente é conseguido através da assinatura de um documento de aceitação, mas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>não há processo de encerramento formalizado nas instruções de entrega</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O encerramento do projeto é formalizado de acordo com as instruções de entrega mas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o aceite do cliente não é exigido</t>
+    </r>
+  </si>
+  <si>
+    <t>O encerramento é informal e o aceite do cliente é realizado através de meios eletrônicos (e-mail, mensagens, etc.) ou verbalmente</t>
+  </si>
+  <si>
+    <t>Não há processo de encerramento</t>
+  </si>
+  <si>
+    <t>PM.4.2.Q1</t>
+  </si>
+  <si>
+    <t>PM.4.2 Update Project Repository.</t>
+  </si>
+  <si>
+    <t>O que ocorre após o encerramento do projeto?</t>
+  </si>
+  <si>
+    <t>O repositório do projeto é atualizado, as lições aprendidas são documentadas e apresentadas em uma reunião de encerramento</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O repositório do projeto é atualizado, as lições aprendidas são documentadas mas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">não são apresentadas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>em uma reunião de encerramento</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O repositório do projeto é atualizado, mas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as lições aprendidas não são documentadas e não há uma reunião de encerramento</t>
+    </r>
+  </si>
+  <si>
+    <t>Não existe repositório do projeto</t>
+  </si>
+  <si>
+    <t>Nada ocorre</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,6 +3536,101 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -510,7 +3640,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -518,11 +3648,405 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -539,8 +4063,442 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="319">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -599,7 +4557,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -634,7 +4592,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -811,7 +4769,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -821,26 +4779,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
     <col min="2" max="2" width="76" style="1" customWidth="1"/>
-    <col min="3" max="15" width="9.140625" style="4"/>
+    <col min="3" max="15" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
+      <c r="C2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="84">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -884,7 +4858,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="42">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -928,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="56">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -972,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="28">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1016,7 +4990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="28">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1060,7 +5034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
@@ -1104,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="56">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -1148,7 +5122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="28">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -1192,7 +5166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1221,7 +5195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1241,7 +5215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1264,7 +5238,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1275,7 +5249,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1287,9 +5261,17 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:N2"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1297,32 +5279,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B2" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B2" sqref="B2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="8.83203125" style="3"/>
     <col min="2" max="2" width="76" style="1" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" style="4"/>
+    <col min="3" max="10" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:14">
+      <c r="C2" s="25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" ht="84">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1366,7 +5359,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1410,7 +5403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="28">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1454,7 +5447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="42">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1498,7 +5491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="42">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -1542,7 +5535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="42">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -1586,7 +5579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="56">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -1630,7 +5623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="42">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
@@ -1674,7 +5667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1703,7 +5696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="3" t="s">
         <v>42</v>
       </c>
@@ -1714,7 +5707,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -1731,7 +5724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
@@ -1748,7 +5741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -1765,7 +5758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
@@ -1782,7 +5775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
         <v>47</v>
       </c>
@@ -1797,7 +5790,3334 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:N2"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I73"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="B68" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I68" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="7" width="15.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="14" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="126">
+      <c r="A1" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="6">
+        <f>IF(ISNA(MATCH("x",C2:G2)),0,6-MATCH("x",C2:G2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="42">
+      <c r="A3" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="6">
+        <f>IF(ISNA(MATCH("x",C4:G4)),0,6-MATCH("x",C4:G4))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="3" customFormat="1" ht="70" customHeight="1">
+      <c r="A5" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="6">
+        <f>IF(ISNA(MATCH("x",C6:G6)),0,6-MATCH("x",C6:G6))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="56">
+      <c r="A7" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" s="3" customFormat="1">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="6">
+        <f>IF(ISNA(MATCH("x",C8:G8)),0,6-MATCH("x",C8:G8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="168">
+      <c r="A9" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="3" customFormat="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="6">
+        <f>IF(ISNA(MATCH("x",C10:G10)),0,6-MATCH("x",C10:G10))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="84" customHeight="1">
+      <c r="A11" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="6">
+        <f>IF(ISNA(MATCH("x",C12:G12)),0,6-MATCH("x",C12:G12))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="266" customHeight="1">
+      <c r="A13" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="6">
+        <f>IF(ISNA(MATCH("x",C14:G14)),0,6-MATCH("x",C14:G14))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="56">
+      <c r="A15" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="1:9" s="3" customFormat="1">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="6">
+        <f>IF(ISNA(MATCH("x",C16:G16)),0,6-MATCH("x",C16:G16))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="42">
+      <c r="A17" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="6">
+        <f>IF(ISNA(MATCH("x",C18:G18)),0,6-MATCH("x",C18:G18))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="84">
+      <c r="A19" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="3" customFormat="1">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="6">
+        <f>IF(ISNA(MATCH("x",C20:G20)),0,6-MATCH("x",C20:G20))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="168" customHeight="1">
+      <c r="A21" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="6">
+        <f>IF(ISNA(MATCH("x",C22:G22)),0,6-MATCH("x",C22:G22))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="98">
+      <c r="A23" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="30"/>
+    </row>
+    <row r="24" spans="1:9" s="3" customFormat="1">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="6">
+        <f>IF(ISNA(MATCH("x",C24:G24)),0,6-MATCH("x",C24:G24))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="126" customHeight="1">
+      <c r="A25" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="6">
+        <f>IF(ISNA(MATCH("x",C26:G26)),0,6-MATCH("x",C26:G26))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="84">
+      <c r="A27" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="30"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="6">
+        <f>IF(ISNA(MATCH("x",C28:G28)),0,6-MATCH("x",C28:G28))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="98">
+      <c r="A29" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="30"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="6">
+        <f>IF(ISNA(MATCH("x",C30:G30)),0,6-MATCH("x",C30:G30))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="84">
+      <c r="A31" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" s="30"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="6">
+        <f>IF(ISNA(MATCH("x",C32:G32)),0,6-MATCH("x",C32:G32))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="98">
+      <c r="A33" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="6">
+        <f>IF(ISNA(MATCH("x",C34:G34)),0,6-MATCH("x",C34:G34))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="84">
+      <c r="A35" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" s="26"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="6">
+        <f>IF(ISNA(MATCH("x",C36:G36)),0,6-MATCH("x",C36:G36))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="168" customHeight="1">
+      <c r="A37" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="6">
+        <f>IF(ISNA(MATCH("x",C38:G38)),0,6-MATCH("x",C38:G38))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="140">
+      <c r="A39" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" s="26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="6">
+        <f>IF(ISNA(MATCH("x",C40:G40)),0,6-MATCH("x",C40:G40))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="126">
+      <c r="A41" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" s="26"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="6">
+        <f>IF(ISNA(MATCH("x",C42:G42)),0,6-MATCH("x",C42:G42))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="70">
+      <c r="A43" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H43" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="6">
+        <f>IF(ISNA(MATCH("x",C44:G44)),0,6-MATCH("x",C44:G44))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="70">
+      <c r="A45" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" s="26"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="6">
+        <f>IF(ISNA(MATCH("x",C46:G46)),0,6-MATCH("x",C46:G46))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="56">
+      <c r="A47" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="6">
+        <f>IF(ISNA(MATCH("x",C48:G48)),0,6-MATCH("x",C48:G48))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="98">
+      <c r="A49" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="6">
+        <f>IF(ISNA(MATCH("x",C50:G50)),0,6-MATCH("x",C50:G50))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="168">
+      <c r="A51" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="6">
+        <f>IF(ISNA(MATCH("x",C52:G52)),0,6-MATCH("x",C52:G52))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="84">
+      <c r="A53" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="6">
+        <f>IF(ISNA(MATCH("x",C54:G54)),0,6-MATCH("x",C54:G54))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="84">
+      <c r="A55" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="6">
+        <f>IF(ISNA(MATCH("x",C56:G56)),0,6-MATCH("x",C56:G56))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="84">
+      <c r="A57" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" s="29"/>
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="6">
+        <f>IF(ISNA(MATCH("x",C58:G58)),0,6-MATCH("x",C58:G58))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="84">
+      <c r="A59" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="6">
+        <f>IF(ISNA(MATCH("x",C60:G60)),0,6-MATCH("x",C60:G60))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="196" customHeight="1">
+      <c r="A61" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H61" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="6">
+        <f>IF(ISNA(MATCH("x",C62:G62)),0,6-MATCH("x",C62:G62))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="98">
+      <c r="A63" s="31" t="s">
+        <v>249</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="H63" s="29"/>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="32"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="6">
+        <f>IF(ISNA(MATCH("x",C64:G64)),0,6-MATCH("x",C64:G64))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="126">
+      <c r="A65" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H65" s="29"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="32"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="6">
+        <f>IF(ISNA(MATCH("x",C66:G66)),0,6-MATCH("x",C66:G66))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="154">
+      <c r="A67" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H67" s="27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="30"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="6">
+        <f>IF(ISNA(MATCH("x",C68:G68)),0,6-MATCH("x",C68:G68))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="98">
+      <c r="A69" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69" s="27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="30"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="6">
+        <f>IF(ISNA(MATCH("x",C70:G70)),0,6-MATCH("x",C70:G70))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="B73" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C73" s="8">
+        <f>COUNTA(A1:A70)</f>
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="89">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="H25:H32"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="H1:H8"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H18"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="H55:H60"/>
+    <mergeCell ref="H61:H66"/>
+    <mergeCell ref="H67:H68"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="C73 I2" emptyCellReference="1"/>
+  </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I70"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A17" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="7" width="15.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="14" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="84">
+      <c r="A1" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="6">
+        <f>IF(ISNA(MATCH("x",C2:G2)),0,6-MATCH("x",C2:G2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="112">
+      <c r="A3" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="32"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="6">
+        <f>IF(ISNA(MATCH("x",C4:G4)),0,6-MATCH("x",C4:G4))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="84">
+      <c r="A5" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="32"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="6">
+        <f>IF(ISNA(MATCH("x",C6:G6)),0,6-MATCH("x",C6:G6))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="196">
+      <c r="A7" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="32"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="6">
+        <f>IF(ISNA(MATCH("x",C8:G8)),0,6-MATCH("x",C8:G8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="98">
+      <c r="A9" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="6">
+        <f>IF(ISNA(MATCH("x",C10:G10)),0,6-MATCH("x",C10:G10))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="168">
+      <c r="A11" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="6">
+        <f>IF(ISNA(MATCH("x",C12:G12)),0,6-MATCH("x",C12:G12))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="98" customHeight="1">
+      <c r="A13" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="6">
+        <f>IF(ISNA(MATCH("x",C14:G14)),0,6-MATCH("x",C14:G14))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="112">
+      <c r="A15" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="6">
+        <f>IF(ISNA(MATCH("x",C16:G16)),0,6-MATCH("x",C16:G16))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="112">
+      <c r="A17" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="6">
+        <f>IF(ISNA(MATCH("x",C18:G18)),0,6-MATCH("x",C18:G18))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="14" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="17">
+        <f>COUNTA(A1:A18)</f>
+        <v>9</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="14" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="14" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="14" customHeight="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="14" customHeight="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" ht="14" customHeight="1">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="14" customHeight="1">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" ht="14" customHeight="1"/>
+    <row r="28" spans="1:9">
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="I30" s="6"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="9:9">
+      <c r="I34" s="6"/>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="9:9">
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="9:9">
+      <c r="I38" s="6"/>
+    </row>
+    <row r="40" spans="9:9">
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="9:9">
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="9:9">
+      <c r="I42" s="6"/>
+    </row>
+    <row r="44" spans="9:9">
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="9:9">
+      <c r="I46" s="6"/>
+    </row>
+    <row r="48" spans="9:9">
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="9:9">
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="9:9">
+      <c r="I50" s="6"/>
+    </row>
+    <row r="52" spans="9:9">
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="9:9">
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="9:9">
+      <c r="I54" s="6"/>
+    </row>
+    <row r="56" spans="9:9">
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="9:9">
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="9:9">
+      <c r="I58" s="6"/>
+    </row>
+    <row r="60" spans="9:9">
+      <c r="I60" s="6"/>
+    </row>
+    <row r="62" spans="9:9">
+      <c r="I62" s="6"/>
+    </row>
+    <row r="64" spans="9:9">
+      <c r="I64" s="6"/>
+    </row>
+    <row r="66" spans="9:9">
+      <c r="I66" s="6"/>
+    </row>
+    <row r="68" spans="9:9">
+      <c r="I68" s="6"/>
+    </row>
+    <row r="70" spans="9:9">
+      <c r="I70" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I70"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="I16" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="7" width="15.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="14" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="182" customHeight="1">
+      <c r="A1" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="6">
+        <f>IF(ISNA(MATCH("x",C2:G2)),0,6-MATCH("x",C2:G2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="182">
+      <c r="A3" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="6">
+        <f>IF(ISNA(MATCH("x",C4:G4)),0,6-MATCH("x",C4:G4))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="216" customHeight="1">
+      <c r="A5" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="6">
+        <f>IF(ISNA(MATCH("x",C6:G6)),0,6-MATCH("x",C6:G6))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="168">
+      <c r="A7" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="6">
+        <f>IF(ISNA(MATCH("x",C8:G8)),0,6-MATCH("x",C8:G8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="154" customHeight="1">
+      <c r="A9" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="6">
+        <f>IF(ISNA(MATCH("x",C10:G10)),0,6-MATCH("x",C10:G10))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="182">
+      <c r="A11" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="6">
+        <f>IF(ISNA(MATCH("x",C12:G12)),0,6-MATCH("x",C12:G12))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="98" customHeight="1">
+      <c r="A13" s="37" t="s">
+        <v>377</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="6">
+        <f>IF(ISNA(MATCH("x",C14:G14)),0,6-MATCH("x",C14:G14))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="168">
+      <c r="A15" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="30"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="6">
+        <f>IF(ISNA(MATCH("x",C16:G16)),0,6-MATCH("x",C16:G16))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="14" customHeight="1">
+      <c r="A18" s="13"/>
+      <c r="B18" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="17">
+        <f>COUNTA(A1:A16)</f>
+        <v>8</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="14" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="14" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="14" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="14" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="14" customHeight="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="14" customHeight="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" ht="14" customHeight="1">
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="I26" s="6"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="I30" s="6"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="9:9">
+      <c r="I34" s="6"/>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="9:9">
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="9:9">
+      <c r="I38" s="6"/>
+    </row>
+    <row r="40" spans="9:9">
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="9:9">
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="9:9">
+      <c r="I42" s="6"/>
+    </row>
+    <row r="44" spans="9:9">
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="9:9">
+      <c r="I46" s="6"/>
+    </row>
+    <row r="48" spans="9:9">
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="9:9">
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="9:9">
+      <c r="I50" s="6"/>
+    </row>
+    <row r="52" spans="9:9">
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="9:9">
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="9:9">
+      <c r="I54" s="6"/>
+    </row>
+    <row r="56" spans="9:9">
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="9:9">
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="9:9">
+      <c r="I58" s="6"/>
+    </row>
+    <row r="60" spans="9:9">
+      <c r="I60" s="6"/>
+    </row>
+    <row r="62" spans="9:9">
+      <c r="I62" s="6"/>
+    </row>
+    <row r="64" spans="9:9">
+      <c r="I64" s="6"/>
+    </row>
+    <row r="66" spans="9:9">
+      <c r="I66" s="6"/>
+    </row>
+    <row r="68" spans="9:9">
+      <c r="I68" s="6"/>
+    </row>
+    <row r="70" spans="9:9">
+      <c r="I70" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H9:H12"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I70"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageLayout" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
+    <col min="3" max="7" width="15.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="14" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="182" customHeight="1">
+      <c r="A1" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="6">
+        <f>IF(ISNA(MATCH("x",C2:G2)),0,6-MATCH("x",C2:G2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="112">
+      <c r="A3" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="6">
+        <f>IF(ISNA(MATCH("x",C4:G4)),0,6-MATCH("x",C4:G4))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="216" customHeight="1">
+      <c r="A5" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="6">
+        <f>IF(ISNA(MATCH("x",C6:G6)),0,6-MATCH("x",C6:G6))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="168">
+      <c r="A7" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="6">
+        <f>IF(ISNA(MATCH("x",C8:G8)),0,6-MATCH("x",C8:G8))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="154" customHeight="1">
+      <c r="A9" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="6">
+        <f>IF(ISNA(MATCH("x",C10:G10)),0,6-MATCH("x",C10:G10))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="182">
+      <c r="A11" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="6">
+        <f>IF(ISNA(MATCH("x",C12:G12)),0,6-MATCH("x",C12:G12))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="98" customHeight="1">
+      <c r="A13" s="37" t="s">
+        <v>377</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>386</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="6">
+        <f>IF(ISNA(MATCH("x",C14:G14)),0,6-MATCH("x",C14:G14))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="168">
+      <c r="A15" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="30"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="6">
+        <f>IF(ISNA(MATCH("x",C16:G16)),0,6-MATCH("x",C16:G16))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14" customHeight="1">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="14" customHeight="1">
+      <c r="A18" s="13"/>
+      <c r="B18" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C18" s="17">
+        <f>COUNTA(A1:A16)</f>
+        <v>8</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="14" customHeight="1">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="14" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="14" customHeight="1">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="14" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="14" customHeight="1">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="14" customHeight="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" ht="14" customHeight="1">
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="I26" s="6"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="I30" s="6"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="9:9">
+      <c r="I34" s="6"/>
+    </row>
+    <row r="36" spans="9:9">
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="9:9">
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="9:9">
+      <c r="I38" s="6"/>
+    </row>
+    <row r="40" spans="9:9">
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="9:9">
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="9:9">
+      <c r="I42" s="6"/>
+    </row>
+    <row r="44" spans="9:9">
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="9:9">
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="9:9">
+      <c r="I46" s="6"/>
+    </row>
+    <row r="48" spans="9:9">
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="9:9">
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="9:9">
+      <c r="I50" s="6"/>
+    </row>
+    <row r="52" spans="9:9">
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="9:9">
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="9:9">
+      <c r="I54" s="6"/>
+    </row>
+    <row r="56" spans="9:9">
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="9:9">
+      <c r="I57" s="3"/>
+    </row>
+    <row r="58" spans="9:9">
+      <c r="I58" s="6"/>
+    </row>
+    <row r="60" spans="9:9">
+      <c r="I60" s="6"/>
+    </row>
+    <row r="62" spans="9:9">
+      <c r="I62" s="6"/>
+    </row>
+    <row r="64" spans="9:9">
+      <c r="I64" s="6"/>
+    </row>
+    <row r="66" spans="9:9">
+      <c r="I66" s="6"/>
+    </row>
+    <row r="68" spans="9:9">
+      <c r="I68" s="6"/>
+    </row>
+    <row r="70" spans="9:9">
+      <c r="I70" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="44" customFormat="1">
+      <c r="A1" s="45"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <f>SUM(PM.1!I2:I70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <f>SUM(PM.2!I2:I18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <f>SUM(PM.3!I2:I16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <f>SUM(PM.4!I2:I16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6">
+        <f>SUM(B2:B5)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>